--- a/data/trans_camb/P16B01-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 1,3</t>
+          <t>-48,65; -0,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-49,78; -2,57</t>
+          <t>-51,04; -5,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 25,83</t>
+          <t>-28,97; 26,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 38,09</t>
+          <t>-19,91; 38,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 4,18</t>
+          <t>-30,39; 5,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 7,58</t>
+          <t>-29,94; 6,77</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,26; 0,81</t>
+          <t>-55,4; 0,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,05; -5,95</t>
+          <t>-61,91; -8,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 71,85</t>
+          <t>-47,35; 70,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 100,27</t>
+          <t>-30,07; 99,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 7,88</t>
+          <t>-41,16; 8,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 13,32</t>
+          <t>-41,58; 12,09</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 29,23</t>
+          <t>-29,82; 29,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 22,93</t>
+          <t>-31,9; 23,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 40,42</t>
+          <t>-6,6; 42,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 39,11</t>
+          <t>-9,74; 40,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 27,02</t>
+          <t>-10,0; 27,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 23,78</t>
+          <t>-14,21; 22,34</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,33; 72,47</t>
+          <t>-43,1; 74,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 57,0</t>
+          <t>-46,52; 59,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 92,5</t>
+          <t>-9,5; 107,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 88,55</t>
+          <t>-12,06; 97,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 55,3</t>
+          <t>-14,12; 56,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 49,95</t>
+          <t>-20,39; 45,88</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 22,29</t>
+          <t>-14,72; 22,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 17,57</t>
+          <t>-25,7; 15,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 17,98</t>
+          <t>-44,14; 14,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 14,5</t>
+          <t>-47,78; 14,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 14,38</t>
+          <t>-18,04; 14,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 9,61</t>
+          <t>-25,43; 9,03</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 34,65</t>
+          <t>-19,48; 37,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 27,9</t>
+          <t>-33,98; 24,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 23,38</t>
+          <t>-48,56; 21,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,33; 18,19</t>
+          <t>-54,93; 19,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 21,13</t>
+          <t>-21,79; 22,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 14,8</t>
+          <t>-31,89; 12,38</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 6,37</t>
+          <t>-17,63; 6,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,24; -3,5</t>
+          <t>-31,17; -4,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 13,3</t>
+          <t>-17,41; 11,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,28; -0,94</t>
+          <t>-33,1; 0,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 5,56</t>
+          <t>-13,27; 5,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,41; -6,14</t>
+          <t>-28,2; -7,41</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 8,51</t>
+          <t>-20,51; 8,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,84; -5,61</t>
+          <t>-37,26; -7,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 19,54</t>
+          <t>-19,61; 17,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,65; -1,44</t>
+          <t>-38,92; 0,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 7,24</t>
+          <t>-15,71; 6,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,98; -7,69</t>
+          <t>-33,77; -9,64</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 18,64</t>
+          <t>-14,4; 19,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 8,04</t>
+          <t>-31,1; 7,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 13,79</t>
+          <t>-25,34; 12,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 11,72</t>
+          <t>-26,31; 11,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 9,4</t>
+          <t>-15,89; 9,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 2,01</t>
+          <t>-25,15; 2,42</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 26,41</t>
+          <t>-15,32; 26,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 10,1</t>
+          <t>-35,11; 9,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 19,56</t>
+          <t>-28,4; 18,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 16,0</t>
+          <t>-29,02; 15,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 12,34</t>
+          <t>-18,1; 13,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 2,37</t>
+          <t>-27,6; 2,71</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-47,67; 14,6</t>
+          <t>-42,07; 13,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-54,39; 8,8</t>
+          <t>-53,05; 10,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 11,62</t>
+          <t>-16,08; 12,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 3,8</t>
+          <t>-25,88; 3,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 6,54</t>
+          <t>-20,07; 7,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 1,65</t>
+          <t>-26,3; 1,46</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 31,42</t>
+          <t>-59,13; 29,19</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-71,41; 24,27</t>
+          <t>-73,05; 22,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 17,84</t>
+          <t>-20,11; 18,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 5,42</t>
+          <t>-32,9; 5,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 10,38</t>
+          <t>-25,55; 12,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 2,52</t>
+          <t>-33,56; 2,22</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 2,85</t>
+          <t>-13,27; 1,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-23,14; -5,5</t>
+          <t>-23,4; -6,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,23</t>
+          <t>-9,07; 7,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 2,42</t>
+          <t>-15,14; 1,71</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 2,46</t>
+          <t>-8,92; 2,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -4,39</t>
+          <t>-16,2; -4,5</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 3,8</t>
+          <t>-16,85; 2,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-29,92; -7,77</t>
+          <t>-30,04; -8,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 10,52</t>
+          <t>-11,87; 10,38</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 3,34</t>
+          <t>-19,95; 2,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 3,46</t>
+          <t>-11,74; 3,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,37; -6,24</t>
+          <t>-21,36; -6,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B01-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
